--- a/biology/Botanique/Patate_douce_rôtie/Patate_douce_rôtie.xlsx
+++ b/biology/Botanique/Patate_douce_rôtie/Patate_douce_rôtie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Patate_douce_r%C3%B4tie</t>
+          <t>Patate_douce_rôtie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les patates douces rôties sont un mets de la cuisine de rue apprécié en hiver en Asie de l'Est.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Patate_douce_r%C3%B4tie</t>
+          <t>Patate_douce_rôtie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Chine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Chine, les patates douces à chair jaune sont rôties dans un grand tambour de fer et vendues dans la rue en hiver[1]. On les appelle kǎo-báishǔ (烤白薯 ; « patates douces rôties ») dans la Chine du Nord, haau faan syu (烤番薯) dans les régions de parler cantonais et kǎo-dìguā (烤地瓜 ; « patates douces rôties ») à Taïwan, comme le nom des patates douces elles-mêmes varient selon les États et les régions sinophones.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Chine, les patates douces à chair jaune sont rôties dans un grand tambour de fer et vendues dans la rue en hiver. On les appelle kǎo-báishǔ (烤白薯 ; « patates douces rôties ») dans la Chine du Nord, haau faan syu (烤番薯) dans les régions de parler cantonais et kǎo-dìguā (烤地瓜 ; « patates douces rôties ») à Taïwan, comme le nom des patates douces elles-mêmes varient selon les États et les régions sinophones.
 			Patates douces rôties de Chine.
 			Vendeur de patates douces rôties à Hong Kong.
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Patate_douce_r%C3%B4tie</t>
+          <t>Patate_douce_rôtie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,11 +559,13 @@
           <t>Corée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les patates douces rôties dans des fûts métalliques, appelées gun-goguma (군고구마; « patates douces rôties »), sont également populaires en Corée du Nord  et en Corée du Sud[2],[3]. Cet aliment est vendu de la fin de l'automne à l'hiver par des vendeurs qui portent un ouchanka, couvre-chef parfois appelé « chapeau de vendeur de patates douces rôties » ou « chapeau de vendeur de marrons grillés ». Bien que l'on puisse faire rôtir tout type de goguma (patate douce), des variétés plus tendres et aqueuses, telles que les hobak-goguma (patate douce citrouille) sont préférées aux variétés plus fermes et farineuses, telles que les bam-goguma (patate douce châtaigne) pour rôtir[4].
-En Corée du Sud, les patates douces rôties sont séchées pour préparer le gun-goguma-mallaengi (군고구마 말랭이), et congelées pour faire de la glace au gun-goguma (아이스 군고구마)[5].
-Bien que le gun-goguma ait toujours été un aliment d'hiver, les crèmes glacées et smoothies au gun-goguma sont actuellement appréciés en été[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les patates douces rôties dans des fûts métalliques, appelées gun-goguma (군고구마; « patates douces rôties »), sont également populaires en Corée du Nord  et en Corée du Sud,. Cet aliment est vendu de la fin de l'automne à l'hiver par des vendeurs qui portent un ouchanka, couvre-chef parfois appelé « chapeau de vendeur de patates douces rôties » ou « chapeau de vendeur de marrons grillés ». Bien que l'on puisse faire rôtir tout type de goguma (patate douce), des variétés plus tendres et aqueuses, telles que les hobak-goguma (patate douce citrouille) sont préférées aux variétés plus fermes et farineuses, telles que les bam-goguma (patate douce châtaigne) pour rôtir.
+En Corée du Sud, les patates douces rôties sont séchées pour préparer le gun-goguma-mallaengi (군고구마 말랭이), et congelées pour faire de la glace au gun-goguma (아이스 군고구마).
+Bien que le gun-goguma ait toujours été un aliment d'hiver, les crèmes glacées et smoothies au gun-goguma sont actuellement appréciés en été.
 			Gun-goguma.
 			Fût typique à gun-goguma en Corée.
 			Rôtissage des goguma dans un fût.
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Patate_douce_r%C3%B4tie</t>
+          <t>Patate_douce_rôtie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,9 +598,11 @@
           <t>Japon</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Japon, un mets similaire de la cuisine de rue est le ishiyaki-imo (石焼き芋; « patates douces rôties sur des pierres chaudes ») et vendu dans des camions-restaurants pendant l'hiver[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Japon, un mets similaire de la cuisine de rue est le ishiyaki-imo (石焼き芋; « patates douces rôties sur des pierres chaudes ») et vendu dans des camions-restaurants pendant l'hiver.
 			Vendeur de yaki-imo à Nara (Japon).
 </t>
         </is>
@@ -596,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Patate_douce_r%C3%B4tie</t>
+          <t>Patate_douce_rôtie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,9 +632,11 @@
           <t>Vietnam</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les patates douces rôties (khoai lang nướng) sont également un aliment de rue populaire à Hanoï et dans le nord du Vietnam en hiver[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les patates douces rôties (khoai lang nướng) sont également un aliment de rue populaire à Hanoï et dans le nord du Vietnam en hiver.
 </t>
         </is>
       </c>
